--- a/tests/fixtures/models/4 - infra_year_timeslices/model/input_data/input_data.xlsx
+++ b/tests/fixtures/models/4 - infra_year_timeslices/model/input_data/input_data.xlsx
@@ -5,26 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baioc\Documents\GitHub\pyesm\tests\fixtures\models\4 - infra_year_timeslices\model_v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baioc\Documents\GitHub\pyesm\tests\fixtures\models\4 - infra_year_timeslices\model_constrained\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B2F7A7-A9B2-42CE-8DFE-96F66DDD4890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE44A22-7D06-435F-BE6A-EFAF08EB3A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="2085" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="u" sheetId="1" r:id="rId1"/>
     <sheet name="d" sheetId="2" r:id="rId2"/>
     <sheet name="c_om" sheetId="3" r:id="rId3"/>
     <sheet name="Y_y" sheetId="4" r:id="rId4"/>
-    <sheet name="dp" sheetId="5" r:id="rId5"/>
-    <sheet name="n_periods" sheetId="6" r:id="rId6"/>
-    <sheet name="n_slices" sheetId="7" r:id="rId7"/>
+    <sheet name="lf_max_h" sheetId="5" r:id="rId5"/>
+    <sheet name="lf_min_h" sheetId="6" r:id="rId6"/>
+    <sheet name="lf_max" sheetId="7" r:id="rId7"/>
+    <sheet name="lf_min" sheetId="8" r:id="rId8"/>
+    <sheet name="cap_year" sheetId="9" r:id="rId9"/>
+    <sheet name="dp" sheetId="10" r:id="rId10"/>
+    <sheet name="n_periods" sheetId="11" r:id="rId11"/>
+    <sheet name="n_slices" sheetId="12" r:id="rId12"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">d!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">u!$A$1:$F$1</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -124,7 +125,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +519,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -528,10 +528,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -539,16 +539,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -559,33 +559,33 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -594,24 +594,24 @@
         <v>9</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -619,33 +619,33 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -654,52 +654,52 @@
         <v>10</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -708,13 +708,13 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -738,11 +738,217 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F13">
-      <sortCondition ref="E1"/>
-    </sortState>
-  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E7" si="0">1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>365</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -751,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +1005,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -808,18 +1014,18 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -828,7 +1034,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -839,19 +1045,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -859,39 +1065,39 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -899,13 +1105,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -919,19 +1125,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -939,16 +1145,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -959,16 +1165,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -979,19 +1185,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -999,13 +1205,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -1019,19 +1225,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1039,39 +1245,39 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1079,7 +1285,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1088,7 +1294,7 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -1099,7 +1305,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -1108,13 +1314,13 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1138,11 +1344,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F19">
-      <sortCondition ref="E1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1320,15 +1521,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1336,16 +1537,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1353,16 +1557,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1370,16 +1577,19 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1387,16 +1597,19 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1404,17 +1617,19 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1422,17 +1637,19 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ref="E6:E7" si="0">1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1440,14 +1657,256 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1457,15 +1916,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F2" sqref="F2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1473,18 +1932,376 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>365</v>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1494,15 +2311,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1510,18 +2327,383 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>2500</v>
       </c>
     </row>
   </sheetData>
